--- a/biology/Zoologie/Episcada_doto/Episcada_doto.xlsx
+++ b/biology/Zoologie/Episcada_doto/Episcada_doto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Episcada doto est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Episcada.
 </t>
@@ -511,48 +523,54 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Episcada doto a été décrit par Jakob Hübner en 1806 sous le nom initial de Nereis doto.
-Synonyme : Ceratiscada doto ; Lamas, 1999[1].
-Sous-espèces
-Episcada doto doto; présent au Brésil
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada doto a été décrit par Jakob Hübner en 1806 sous le nom initial de Nereis doto.
+Synonyme : Ceratiscada doto ; Lamas, 1999.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Episcada_doto</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_doto</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Episcada doto doto; présent au Brésil
 Episcada doto canaria (Brown &amp; d'Almeida, 1970)
 Episcada doto zajciwi d'Almeida &amp; Mielke, 1967
 Episcada doto ssp; présent au Venezuela
 Episcada doto ssp; présent au Pérou
-Episcada doto ssp; présent au Brésil[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Episcada_doto</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Episcada_doto</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Episcada doto est un papillon à l'abdomen mince, aux ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave. Les ailes sont transparentes avec de très fines veines marron et une bordure marron ainsi qu'une ligne marron depuis le bord costal à la limite de la cellulele.
-</t>
+Episcada doto ssp; présent au Brésil.</t>
         </is>
       </c>
     </row>
@@ -577,10 +595,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada doto est un papillon à l'abdomen mince, aux ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave. Les ailes sont transparentes avec de très fines veines marron et une bordure marron ainsi qu'une ligne marron depuis le bord costal à la limite de la cellulele.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,15 +628,79 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Episcada_doto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_doto</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Episcada doto est présent au Venezuela, au Brésil et au Pérou[1],[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada doto est présent au Venezuela, au Brésil et au Pérou,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Episcada_doto</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_doto</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Episcada doto, sur Wikimedia CommonsEpiscada doto, sur Wikispecies
 </t>
